--- a/data/financial_statements/socf/EQR.xlsx
+++ b/data/financial_statements/socf/EQR.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -110,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -475,129 +586,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>323025000</v>
@@ -718,8 +829,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>225704000</v>
@@ -840,8 +951,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>-188694000</v>
@@ -962,8 +1073,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>34274000</v>
@@ -1084,8 +1195,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>22905000</v>
@@ -1206,8 +1317,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H7">
         <v>133000</v>
@@ -1229,8 +1340,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>429354000</v>
@@ -1351,8 +1462,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>378328000</v>
@@ -1473,8 +1584,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C10">
         <v>-32178000</v>
@@ -1496,8 +1607,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>-87743000</v>
@@ -1618,8 +1729,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>-1914000</v>
@@ -1740,8 +1851,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>288671000</v>
@@ -1862,8 +1973,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>-474592300</v>
@@ -1887,7 +1998,7 @@
         <v>-9451900</v>
       </c>
       <c r="I14">
-        <v>-356361100</v>
+        <v>-382184100</v>
       </c>
       <c r="J14">
         <v>-27984900</v>
@@ -1899,7 +2010,7 @@
         <v>-407044900</v>
       </c>
       <c r="M14">
-        <v>41585900</v>
+        <v>31320300</v>
       </c>
       <c r="N14">
         <v>-131212800</v>
@@ -1914,10 +2025,10 @@
         <v>-5656200</v>
       </c>
       <c r="R14">
-        <v>7484900</v>
+        <v>29594700</v>
       </c>
       <c r="S14">
-        <v>132045700</v>
+        <v>109935900</v>
       </c>
       <c r="T14">
         <v>-317897800</v>
@@ -1926,16 +2037,16 @@
         <v>-35918400</v>
       </c>
       <c r="V14">
-        <v>20891100</v>
+        <v>33149100</v>
       </c>
       <c r="W14">
-        <v>31945100</v>
+        <v>31385100</v>
       </c>
       <c r="X14">
-        <v>-59050100</v>
+        <v>-70748100</v>
       </c>
       <c r="Y14">
-        <v>465445000</v>
+        <v>382511000</v>
       </c>
       <c r="Z14">
         <v>-10489000</v>
@@ -1947,10 +2058,10 @@
         <v>-2372497000</v>
       </c>
       <c r="AC14">
-        <v>174134000</v>
+        <v>188072000</v>
       </c>
       <c r="AD14">
-        <v>-28284900</v>
+        <v>-42222900</v>
       </c>
       <c r="AE14">
         <v>-27257200</v>
@@ -1959,10 +2070,10 @@
         <v>13556000</v>
       </c>
       <c r="AG14">
-        <v>-140966900</v>
+        <v>-140208900</v>
       </c>
       <c r="AH14">
-        <v>-117626100</v>
+        <v>-118384100</v>
       </c>
       <c r="AI14">
         <v>140247000</v>
@@ -1984,8 +2095,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>2995000</v>
@@ -2106,8 +2217,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="AC16">
         <v>-3597000</v>
@@ -2123,8 +2234,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>-235847000</v>
@@ -2245,8 +2356,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>-7765000</v>
@@ -2270,10 +2381,10 @@
         <v>-11680000</v>
       </c>
       <c r="I18">
-        <v>-34223000</v>
+        <v>-8401000</v>
       </c>
       <c r="J18">
-        <v>-8958000</v>
+        <v>-8970000</v>
       </c>
       <c r="K18">
         <v>-12895000</v>
@@ -2282,7 +2393,7 @@
         <v>-17652000</v>
       </c>
       <c r="M18">
-        <v>-58360000</v>
+        <v>-48096000</v>
       </c>
       <c r="N18">
         <v>-15298000</v>
@@ -2294,13 +2405,13 @@
         <v>-12716000</v>
       </c>
       <c r="Q18">
-        <v>4166000</v>
+        <v>4165000</v>
       </c>
       <c r="R18">
-        <v>13660000</v>
+        <v>-8449000</v>
       </c>
       <c r="S18">
-        <v>-32755000</v>
+        <v>-10646000</v>
       </c>
       <c r="T18">
         <v>-13493000</v>
@@ -2309,16 +2420,16 @@
         <v>-8156000</v>
       </c>
       <c r="V18">
-        <v>-336000</v>
+        <v>-12594000</v>
       </c>
       <c r="W18">
-        <v>-8122000</v>
+        <v>-7562000</v>
       </c>
       <c r="X18">
-        <v>-23946000</v>
+        <v>-12248000</v>
       </c>
       <c r="Y18">
-        <v>-152275000</v>
+        <v>-69342000</v>
       </c>
       <c r="Z18">
         <v>-10817000</v>
@@ -2330,10 +2441,10 @@
         <v>-152592000</v>
       </c>
       <c r="AC18">
-        <v>-2865000</v>
+        <v>-16803000</v>
       </c>
       <c r="AD18">
-        <v>-11463000</v>
+        <v>2475000</v>
       </c>
       <c r="AE18">
         <v>-31465000</v>
@@ -2342,10 +2453,10 @@
         <v>-12123000</v>
       </c>
       <c r="AG18">
-        <v>-10761000</v>
+        <v>-11519000</v>
       </c>
       <c r="AH18">
-        <v>-10419000</v>
+        <v>-9661000</v>
       </c>
       <c r="AI18">
         <v>-24838000</v>
@@ -2367,8 +2478,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>-715209000</v>
@@ -2489,8 +2600,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>2816000</v>
@@ -2611,8 +2722,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2733,8 +2844,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>2816000</v>
@@ -2855,8 +2966,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>5959000</v>
@@ -2977,8 +3088,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>-235074000</v>
@@ -3099,8 +3210,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0.3023</v>
@@ -3221,8 +3332,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>57179000</v>
@@ -3343,8 +3454,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>-87743000</v>
@@ -3465,8 +3576,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>-773000</v>
@@ -3587,8 +3698,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2995000</v>
@@ -3709,8 +3820,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>2995000</v>
